--- a/medicine/Enfance/Janosch/Janosch.xlsx
+++ b/medicine/Enfance/Janosch/Janosch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Janosch, né Horst Eckert à Hindenburg-en-Haute-Silésie le 11 mars 1931, est un auteur et illustrateur allemand de littérature d'enfance et de jeunesse. 
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir déménagé avec sa famille en Allemagne de l’Ouest à la fin de la guerre, Horst Eckert s’installe à Munich en 1953, où il étudie à l’académie des beaux-arts. Il commence à travailler comme illustrateur dans la presse. Son premier livre pour enfant paraît en 1960 : Die Geschichte von Valek dem Pferd. Il a publié plus de 90 livres en langue allemande. Il vit actuellement[Quand ?] à Tenerife (Espagne).
-De 2019 à 2021, il est sélectionné durant trois années d'affilée pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren[1].
+De 2019 à 2021, il est sélectionné durant trois années d'affilée pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Quelques titres parus en français</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'Auto de pluie (Das Regenauto), L'école des loisirs, 1975.
 Je te dis que tu es un ours !, Lotus, 1977 ; Casterman, 1983.
@@ -597,9 +613,11 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1972 : (international) « Hightly Commended Illustrators »[2], par l' IBBY, pour l'ensemble de son œuvre
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1972 : (international) « Hightly Commended Illustrators », par l' IBBY, pour l'ensemble de son œuvre
 1979 : Deutscher Jugendliteraturpreis du livre illustré, pour Tout est si beau à Panama
 1979 : Prix Toucan
 1983 : Pinceau d'argent (nl)
@@ -607,7 +625,7 @@
 1992 : Prix Andreas-Gryphius
 1993 : Ordre du Mérite de la République fédérale d'Allemagne
 2002 : Bayerischer Poetentaler
-2019 à 2021 :  Sélection pour le Prix commémoratif Astrid-Lindgren[1] durant trois années d'affilée</t>
+2019 à 2021 :  Sélection pour le Prix commémoratif Astrid-Lindgren durant trois années d'affilée</t>
         </is>
       </c>
     </row>
